--- a/table gas.xlsx
+++ b/table gas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Window\Desktop\comaid\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B122113-1E6D-4241-B531-9D19238789F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C23834-8475-483F-A4FD-976CBFDFF8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{6EC8D1FA-7949-4C10-917B-6F5ADC1947B4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="5" activeTab="8" xr2:uid="{6EC8D1FA-7949-4C10-917B-6F5ADC1947B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Saturated Water(gas)" sheetId="4" r:id="rId1"/>
@@ -21,12 +21,10 @@
     <sheet name="Carbon Monoxide (CO)" sheetId="8" r:id="rId6"/>
     <sheet name="Helium (He)" sheetId="9" r:id="rId7"/>
     <sheet name="Hydrogen (H2)" sheetId="10" r:id="rId8"/>
-    <sheet name="Nitrogen (N2 )" sheetId="11" r:id="rId9"/>
+    <sheet name="Nitrogen (N2)" sheetId="11" r:id="rId9"/>
     <sheet name="Oxygen (O2)" sheetId="12" r:id="rId10"/>
+    <sheet name="other" sheetId="14" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="21">
   <si>
     <t>T</t>
   </si>
@@ -469,303 +467,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="water fluid"/>
-      <sheetName val="water gas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="K4">
-            <v>1E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="C4">
-            <v>206.3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>181.7</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>130.4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>99.4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>69.7</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>51.94</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>39.130000000000003</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>29.74</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>22.93</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>17.82</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>13.98</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>11.06</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>8.82</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>7.09</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>5.74</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>4.6829999999999998</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>3.8460000000000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>3.18</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>2.645</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>2.2120000000000002</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>1.861</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>1.679</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>1.5740000000000001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>1.337</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>1.1419999999999999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>0.98</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>0.73099999999999998</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>0.55300000000000005</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>0.42499999999999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>0.33100000000000002</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>0.26100000000000001</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>0.20799999999999999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>0.16700000000000001</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>0.13600000000000001</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>0.111</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>9.2200000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>7.6600000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>6.3100000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>5.2499999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>4.4499999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>3.7499999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>3.1699999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>2.69E-2</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>2.2800000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>1.9300000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>1.6299999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>1.37E-2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>1.15E-2</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>9.4000000000000004E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>8.5000000000000006E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>7.4999999999999997E-3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>6.6E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>5.7000000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>4.4999999999999997E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>3.2000000000000002E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1065,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856C98A-E340-456D-9C4B-C5D2188A2F84}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1143,7 +844,6 @@
         <v>1000000</v>
       </c>
       <c r="E3" s="15">
-        <f>10^6</f>
         <v>1000000</v>
       </c>
       <c r="F3" s="15">
@@ -1161,8 +861,7 @@
         <v>273.14999999999998</v>
       </c>
       <c r="B4" s="10">
-        <f>1/('[1]water gas'!C4*1000)</f>
-        <v>4.8473097430925837E-6</v>
+        <v>4.8473097430925833E-3</v>
       </c>
       <c r="C4" s="13">
         <v>1.8540000000000001</v>
@@ -1171,8 +870,7 @@
         <v>8.02</v>
       </c>
       <c r="E4" s="8">
-        <f>(('Saturated Water(gas)'!D4*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B4)/$E$3</f>
-        <v>1654526</v>
+        <v>1654.5260000000001</v>
       </c>
       <c r="F4" s="9">
         <v>18.2</v>
@@ -1189,8 +887,7 @@
         <v>275</v>
       </c>
       <c r="B5" s="10">
-        <f>1/('[1]water gas'!C5*1000)</f>
-        <v>5.5035773252614197E-6</v>
+        <v>5.5035773252614202E-3</v>
       </c>
       <c r="C5" s="13">
         <v>1.855</v>
@@ -1199,8 +896,7 @@
         <v>8.09</v>
       </c>
       <c r="E5" s="8">
-        <f>(('Saturated Water(gas)'!D5*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B5)/$E$3</f>
-        <v>1469953</v>
+        <v>1469.953</v>
       </c>
       <c r="F5" s="9">
         <v>18.3</v>
@@ -1217,8 +913,7 @@
         <v>280</v>
       </c>
       <c r="B6" s="10">
-        <f>1/('[1]water gas'!C6*1000)</f>
-        <v>7.6687116564417182E-6</v>
+        <v>7.6687116564417178E-3</v>
       </c>
       <c r="C6" s="13">
         <v>1.8580000000000001</v>
@@ -1227,8 +922,7 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="E6" s="8">
-        <f>(('Saturated Water(gas)'!D6*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B6)/$E$3</f>
-        <v>1081015.9999999998</v>
+        <v>1081.0159999999998</v>
       </c>
       <c r="F6" s="9">
         <v>18.600000000000001</v>
@@ -1245,8 +939,7 @@
         <v>285</v>
       </c>
       <c r="B7" s="10">
-        <f>1/('[1]water gas'!C7*1000)</f>
-        <v>1.006036217303823E-5</v>
+        <v>1.0060362173038229E-2</v>
       </c>
       <c r="C7" s="13">
         <v>1.861</v>
@@ -1255,8 +948,7 @@
         <v>8.49</v>
       </c>
       <c r="E7" s="8">
-        <f>(('Saturated Water(gas)'!D7*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B7)/$E$3</f>
-        <v>843905.99999999988</v>
+        <v>843.90600000000006</v>
       </c>
       <c r="F7" s="9">
         <v>18.899999999999999</v>
@@ -1273,8 +965,7 @@
         <v>290</v>
       </c>
       <c r="B8" s="10">
-        <f>1/('[1]water gas'!C8*1000)</f>
-        <v>1.4347202295552368E-5</v>
+        <v>1.4347202295552367E-2</v>
       </c>
       <c r="C8" s="13">
         <v>1.8640000000000001</v>
@@ -1283,8 +974,7 @@
         <v>8.69</v>
       </c>
       <c r="E8" s="8">
-        <f>(('Saturated Water(gas)'!D8*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B8)/$E$3</f>
-        <v>605693</v>
+        <v>605.69299999999998</v>
       </c>
       <c r="F8" s="9">
         <v>19.3</v>
@@ -1301,8 +991,7 @@
         <v>295</v>
       </c>
       <c r="B9" s="10">
-        <f>1/('[1]water gas'!C9*1000)</f>
-        <v>1.9252984212552947E-5</v>
+        <v>1.9252984212552948E-2</v>
       </c>
       <c r="C9" s="13">
         <v>1.8680000000000001</v>
@@ -1311,8 +1000,7 @@
         <v>8.89</v>
       </c>
       <c r="E9" s="8">
-        <f>(('Saturated Water(gas)'!D9*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B9)/$E$3</f>
-        <v>461746.6</v>
+        <v>461.74659999999994</v>
       </c>
       <c r="F9" s="9">
         <v>19.5</v>
@@ -1329,8 +1017,7 @@
         <v>300</v>
       </c>
       <c r="B10" s="10">
-        <f>1/('[1]water gas'!C10*1000)</f>
-        <v>2.5555839509327881E-5</v>
+        <v>2.5555839509327879E-2</v>
       </c>
       <c r="C10" s="13">
         <v>1.8720000000000001</v>
@@ -1339,8 +1026,7 @@
         <v>9.09</v>
       </c>
       <c r="E10" s="8">
-        <f>(('Saturated Water(gas)'!D10*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B10)/$E$3</f>
-        <v>355691.7</v>
+        <v>355.69170000000003</v>
       </c>
       <c r="F10" s="9">
         <v>19.600000000000001</v>
@@ -1357,8 +1043,7 @@
         <v>305</v>
       </c>
       <c r="B11" s="10">
-        <f>1/('[1]water gas'!C11*1000)</f>
-        <v>3.3624747814391393E-5</v>
+        <v>3.3624747814391391E-2</v>
       </c>
       <c r="C11" s="13">
         <v>1.877</v>
@@ -1367,8 +1052,7 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="E11" s="8">
-        <f>(('Saturated Water(gas)'!D11*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B11)/$E$3</f>
-        <v>276284.59999999998</v>
+        <v>276.28459999999995</v>
       </c>
       <c r="F11" s="9">
         <v>20.100000000000001</v>
@@ -1385,8 +1069,7 @@
         <v>310</v>
       </c>
       <c r="B12" s="10">
-        <f>1/('[1]water gas'!C12*1000)</f>
-        <v>4.3610989969472308E-5</v>
+        <v>4.3610989969472311E-2</v>
       </c>
       <c r="C12" s="13">
         <v>1.8819999999999999</v>
@@ -1395,8 +1078,7 @@
         <v>9.49</v>
       </c>
       <c r="E12" s="8">
-        <f>(('Saturated Water(gas)'!D12*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B12)/$E$3</f>
-        <v>217605.7</v>
+        <v>217.60569999999998</v>
       </c>
       <c r="F12" s="9">
         <v>20.399999999999999</v>
@@ -1413,8 +1095,7 @@
         <v>315</v>
       </c>
       <c r="B13" s="10">
-        <f>1/('[1]water gas'!C13*1000)</f>
-        <v>5.6116722783389451E-5</v>
+        <v>5.6116722783389451E-2</v>
       </c>
       <c r="C13" s="13">
         <v>1.8879999999999999</v>
@@ -1423,8 +1104,7 @@
         <v>9.69</v>
       </c>
       <c r="E13" s="8">
-        <f>(('Saturated Water(gas)'!D13*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B13)/$E$3</f>
-        <v>172675.8</v>
+        <v>172.67579999999998</v>
       </c>
       <c r="F13" s="9">
         <v>20.7</v>
@@ -1441,8 +1121,7 @@
         <v>320</v>
       </c>
       <c r="B14" s="10">
-        <f>1/('[1]water gas'!C14*1000)</f>
-        <v>7.1530758226037201E-5</v>
+        <v>7.1530758226037189E-2</v>
       </c>
       <c r="C14" s="13">
         <v>1.895</v>
@@ -1451,8 +1130,7 @@
         <v>9.89</v>
       </c>
       <c r="E14" s="8">
-        <f>(('Saturated Water(gas)'!D14*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B14)/$E$3</f>
-        <v>138262.20000000001</v>
+        <v>138.26220000000004</v>
       </c>
       <c r="F14" s="9">
         <v>21</v>
@@ -1469,8 +1147,7 @@
         <v>325</v>
       </c>
       <c r="B15" s="10">
-        <f>1/('[1]water gas'!C15*1000)</f>
-        <v>9.0415913200723327E-5</v>
+        <v>9.0415913200723327E-2</v>
       </c>
       <c r="C15" s="13">
         <v>1.903</v>
@@ -1479,8 +1156,7 @@
         <v>10.09</v>
       </c>
       <c r="E15" s="8">
-        <f>(('Saturated Water(gas)'!D15*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B15)/$E$3</f>
-        <v>111595.4</v>
+        <v>111.5954</v>
       </c>
       <c r="F15" s="9">
         <v>21.3</v>
@@ -1497,8 +1173,7 @@
         <v>330</v>
       </c>
       <c r="B16" s="10">
-        <f>1/('[1]water gas'!C16*1000)</f>
-        <v>1.1337868480725624E-4</v>
+        <v>0.11337868480725623</v>
       </c>
       <c r="C16" s="13">
         <v>1.911</v>
@@ -1507,8 +1182,7 @@
         <v>10.29</v>
       </c>
       <c r="E16" s="8">
-        <f>(('Saturated Water(gas)'!D16*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B16)/$E$3</f>
-        <v>90757.8</v>
+        <v>90.757800000000003</v>
       </c>
       <c r="F16" s="9">
         <v>21.7</v>
@@ -1525,8 +1199,7 @@
         <v>335</v>
       </c>
       <c r="B17" s="10">
-        <f>1/('[1]water gas'!C17*1000)</f>
-        <v>1.4104372355430183E-4</v>
+        <v>0.14104372355430184</v>
       </c>
       <c r="C17" s="13">
         <v>1.92</v>
@@ -1535,8 +1208,7 @@
         <v>10.49</v>
       </c>
       <c r="E17" s="8">
-        <f>(('Saturated Water(gas)'!D17*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B17)/$E$3</f>
-        <v>74374.100000000006</v>
+        <v>74.374099999999999</v>
       </c>
       <c r="F17" s="9">
         <v>22</v>
@@ -1553,8 +1225,7 @@
         <v>340</v>
       </c>
       <c r="B18" s="10">
-        <f>1/('[1]water gas'!C18*1000)</f>
-        <v>1.7421602787456446E-4</v>
+        <v>0.17421602787456444</v>
       </c>
       <c r="C18" s="13">
         <v>1.93</v>
@@ -1563,8 +1234,7 @@
         <v>10.69</v>
       </c>
       <c r="E18" s="8">
-        <f>(('Saturated Water(gas)'!D18*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B18)/$E$3</f>
-        <v>61360.6</v>
+        <v>61.360600000000005</v>
       </c>
       <c r="F18" s="9">
         <v>22.3</v>
@@ -1581,8 +1251,7 @@
         <v>345</v>
       </c>
       <c r="B19" s="10">
-        <f>1/('[1]water gas'!C19*1000)</f>
-        <v>2.1353833013025838E-4</v>
+        <v>0.21353833013025839</v>
       </c>
       <c r="C19" s="13">
         <v>1.9410000000000001</v>
@@ -1591,8 +1260,7 @@
         <v>10.89</v>
       </c>
       <c r="E19" s="8">
-        <f>(('Saturated Water(gas)'!D19*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B19)/$E$3</f>
-        <v>50997.87</v>
+        <v>50.997869999999999</v>
       </c>
       <c r="F19" s="9">
         <v>22.6</v>
@@ -1609,8 +1277,7 @@
         <v>350</v>
       </c>
       <c r="B20" s="10">
-        <f>1/('[1]water gas'!C20*1000)</f>
-        <v>2.6001040041601667E-4</v>
+        <v>0.26001040041601664</v>
       </c>
       <c r="C20" s="13">
         <v>1.954</v>
@@ -1619,8 +1286,7 @@
         <v>11.09</v>
       </c>
       <c r="E20" s="8">
-        <f>(('Saturated Water(gas)'!D20*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B20)/$E$3</f>
-        <v>42652.139999999992</v>
+        <v>42.652140000000003</v>
       </c>
       <c r="F20" s="9">
         <v>23</v>
@@ -1637,8 +1303,7 @@
         <v>355</v>
       </c>
       <c r="B21" s="10">
-        <f>1/('[1]water gas'!C21*1000)</f>
-        <v>3.1446540880503143E-4</v>
+        <v>0.31446540880503143</v>
       </c>
       <c r="C21" s="13">
         <v>1.968</v>
@@ -1647,8 +1312,7 @@
         <v>11.29</v>
       </c>
       <c r="E21" s="8">
-        <f>(('Saturated Water(gas)'!D21*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B21)/$E$3</f>
-        <v>35902.199999999997</v>
+        <v>35.902200000000001</v>
       </c>
       <c r="F21" s="9">
         <v>23.3</v>
@@ -1665,8 +1329,7 @@
         <v>360</v>
       </c>
       <c r="B22" s="10">
-        <f>1/('[1]water gas'!C22*1000)</f>
-        <v>3.7807183364839322E-4</v>
+        <v>0.3780718336483932</v>
       </c>
       <c r="C22" s="13">
         <v>1.9830000000000001</v>
@@ -1675,8 +1338,7 @@
         <v>11.49</v>
       </c>
       <c r="E22" s="8">
-        <f>(('Saturated Water(gas)'!D22*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B22)/$E$3</f>
-        <v>30391.05</v>
+        <v>30.39105</v>
       </c>
       <c r="F22" s="9">
         <v>23.7</v>
@@ -1693,8 +1355,7 @@
         <v>365</v>
       </c>
       <c r="B23" s="10">
-        <f>1/('[1]water gas'!C23*1000)</f>
-        <v>4.5207956600361662E-4</v>
+        <v>0.4520795660036166</v>
       </c>
       <c r="C23" s="13">
         <v>1.9990000000000001</v>
@@ -1703,8 +1364,7 @@
         <v>11.69</v>
       </c>
       <c r="E23" s="8">
-        <f>(('Saturated Water(gas)'!D23*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B23)/$E$3</f>
-        <v>25858.28</v>
+        <v>25.858280000000001</v>
       </c>
       <c r="F23" s="9">
         <v>24.1</v>
@@ -1721,8 +1381,7 @@
         <v>370</v>
       </c>
       <c r="B24" s="10">
-        <f>1/('[1]water gas'!C24*1000)</f>
-        <v>5.3734551316496511E-4</v>
+        <v>0.53734551316496504</v>
       </c>
       <c r="C24" s="13">
         <v>2.0169999999999999</v>
@@ -1731,8 +1390,7 @@
         <v>11.89</v>
       </c>
       <c r="E24" s="8">
-        <f>(('Saturated Water(gas)'!D24*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B24)/$E$3</f>
-        <v>22127.29</v>
+        <v>22.127290000000002</v>
       </c>
       <c r="F24" s="9">
         <v>24.5</v>
@@ -1749,8 +1407,7 @@
         <v>373.15</v>
       </c>
       <c r="B25" s="10">
-        <f>1/('[1]water gas'!C25*1000)</f>
-        <v>5.9559261465157837E-4</v>
+        <v>0.59559261465157831</v>
       </c>
       <c r="C25" s="13">
         <v>2.0289999999999999</v>
@@ -1759,8 +1416,7 @@
         <v>12.02</v>
       </c>
       <c r="E25" s="8">
-        <f>(('Saturated Water(gas)'!D25*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B25)/$E$3</f>
-        <v>20181.580000000002</v>
+        <v>20.18158</v>
       </c>
       <c r="F25" s="9">
         <v>24.8</v>
@@ -1777,8 +1433,7 @@
         <v>375</v>
       </c>
       <c r="B26" s="10">
-        <f>1/('[1]water gas'!C26*1000)</f>
-        <v>6.3532401524777639E-4</v>
+        <v>0.63532401524777637</v>
       </c>
       <c r="C26" s="13">
         <v>2.036</v>
@@ -1787,8 +1442,7 @@
         <v>12.09</v>
       </c>
       <c r="E26" s="8">
-        <f>(('Saturated Water(gas)'!D26*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B26)/$E$3</f>
-        <v>19029.66</v>
+        <v>19.02966</v>
       </c>
       <c r="F26" s="9">
         <v>24.9</v>
@@ -1805,8 +1459,7 @@
         <v>380</v>
       </c>
       <c r="B27" s="10">
-        <f>1/('[1]water gas'!C27*1000)</f>
-        <v>7.4794315632011965E-4</v>
+        <v>0.74794315632011965</v>
       </c>
       <c r="C27" s="13">
         <v>2.0569999999999999</v>
@@ -1815,8 +1468,7 @@
         <v>12.29</v>
       </c>
       <c r="E27" s="8">
-        <f>(('Saturated Water(gas)'!D27*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B27)/$E$3</f>
-        <v>16431.73</v>
+        <v>16.431729999999998</v>
       </c>
       <c r="F27" s="9">
         <v>25.4</v>
@@ -1833,8 +1485,7 @@
         <v>385</v>
       </c>
       <c r="B28" s="10">
-        <f>1/('[1]water gas'!C28*1000)</f>
-        <v>8.7565674255691769E-4</v>
+        <v>0.87565674255691772</v>
       </c>
       <c r="C28" s="13">
         <v>2.08</v>
@@ -1843,8 +1494,7 @@
         <v>12.49</v>
       </c>
       <c r="E28" s="8">
-        <f>(('Saturated Water(gas)'!D28*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B28)/$E$3</f>
-        <v>14263.58</v>
+        <v>14.263579999999999</v>
       </c>
       <c r="F28" s="9">
         <v>25.8</v>
@@ -1861,8 +1511,7 @@
         <v>390</v>
       </c>
       <c r="B29" s="10">
-        <f>1/('[1]water gas'!C29*1000)</f>
-        <v>1.0204081632653062E-3</v>
+        <v>1.0204081632653061</v>
       </c>
       <c r="C29" s="13">
         <v>2.1040000000000001</v>
@@ -1871,8 +1520,7 @@
         <v>12.69</v>
       </c>
       <c r="E29" s="8">
-        <f>(('Saturated Water(gas)'!D29*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B29)/$E$3</f>
-        <v>12436.199999999999</v>
+        <v>12.436199999999999</v>
       </c>
       <c r="F29" s="9">
         <v>26.3</v>
@@ -1889,8 +1537,7 @@
         <v>400</v>
       </c>
       <c r="B30" s="10">
-        <f>1/('[1]water gas'!C30*1000)</f>
-        <v>1.3679890560875513E-3</v>
+        <v>1.3679890560875514</v>
       </c>
       <c r="C30" s="13">
         <v>2.1579999999999999</v>
@@ -1899,8 +1546,7 @@
         <v>13.05</v>
       </c>
       <c r="E30" s="8">
-        <f>(('Saturated Water(gas)'!D30*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B30)/$E$3</f>
-        <v>9539.5499999999993</v>
+        <v>9.5395500000000002</v>
       </c>
       <c r="F30" s="9">
         <v>27.2</v>
@@ -1917,8 +1563,7 @@
         <v>410</v>
       </c>
       <c r="B31" s="10">
-        <f>1/('[1]water gas'!C31*1000)</f>
-        <v>1.8083182640144665E-3</v>
+        <v>1.8083182640144664</v>
       </c>
       <c r="C31" s="13">
         <v>2.2210000000000001</v>
@@ -1927,8 +1572,7 @@
         <v>13.42</v>
       </c>
       <c r="E31" s="8">
-        <f>(('Saturated Water(gas)'!D31*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B31)/$E$3</f>
-        <v>7421.26</v>
+        <v>7.4212600000000011</v>
       </c>
       <c r="F31" s="9">
         <v>28.2</v>
@@ -1945,8 +1589,7 @@
         <v>420</v>
       </c>
       <c r="B32" s="10">
-        <f>1/('[1]water gas'!C32*1000)</f>
-        <v>2.352941176470588E-3</v>
+        <v>2.3529411764705883</v>
       </c>
       <c r="C32" s="13">
         <v>2.2909999999999999</v>
@@ -1955,8 +1598,7 @@
         <v>13.79</v>
       </c>
       <c r="E32" s="8">
-        <f>(('Saturated Water(gas)'!D32*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B32)/$E$3</f>
-        <v>5860.7500000000009</v>
+        <v>5.8607499999999995</v>
       </c>
       <c r="F32" s="9">
         <v>29.8</v>
@@ -1973,8 +1615,7 @@
         <v>430</v>
       </c>
       <c r="B33" s="10">
-        <f>1/('[1]water gas'!C33*1000)</f>
-        <v>3.0211480362537764E-3</v>
+        <v>3.0211480362537761</v>
       </c>
       <c r="C33" s="13">
         <v>2.3690000000000002</v>
@@ -1983,8 +1624,7 @@
         <v>14.14</v>
       </c>
       <c r="E33" s="8">
-        <f>(('Saturated Water(gas)'!D33*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B33)/$E$3</f>
-        <v>4680.34</v>
+        <v>4.6803400000000011</v>
       </c>
       <c r="F33" s="9">
         <v>30.4</v>
@@ -2001,8 +1641,7 @@
         <v>440</v>
       </c>
       <c r="B34" s="10">
-        <f>1/('[1]water gas'!C34*1000)</f>
-        <v>3.8314176245210726E-3</v>
+        <v>3.8314176245210727</v>
       </c>
       <c r="C34" s="12">
         <v>2.46</v>
@@ -2011,8 +1650,7 @@
         <v>14.5</v>
       </c>
       <c r="E34" s="8">
-        <f>(('Saturated Water(gas)'!D34*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B34)/$E$3</f>
-        <v>3784.5</v>
+        <v>3.7845</v>
       </c>
       <c r="F34" s="9">
         <v>31.7</v>
@@ -2029,8 +1667,7 @@
         <v>450</v>
       </c>
       <c r="B35" s="10">
-        <f>1/('[1]water gas'!C35*1000)</f>
-        <v>4.807692307692308E-3</v>
+        <v>4.8076923076923075</v>
       </c>
       <c r="C35" s="12">
         <v>2.56</v>
@@ -2039,8 +1676,7 @@
         <v>14.85</v>
       </c>
       <c r="E35" s="8">
-        <f>(('Saturated Water(gas)'!D35*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B35)/$E$3</f>
-        <v>3088.8</v>
+        <v>3.0888</v>
       </c>
       <c r="F35" s="9">
         <v>33.1</v>
@@ -2057,8 +1693,7 @@
         <v>460</v>
       </c>
       <c r="B36" s="10">
-        <f>1/('[1]water gas'!C36*1000)</f>
-        <v>5.9880239520958087E-3</v>
+        <v>5.9880239520958076</v>
       </c>
       <c r="C36" s="12">
         <v>2.68</v>
@@ -2067,8 +1702,7 @@
         <v>15.19</v>
       </c>
       <c r="E36" s="8">
-        <f>(('Saturated Water(gas)'!D36*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B36)/$E$3</f>
-        <v>2536.73</v>
+        <v>2.5367300000000004</v>
       </c>
       <c r="F36" s="9">
         <v>34.6</v>
@@ -2085,8 +1719,7 @@
         <v>470</v>
       </c>
       <c r="B37" s="10">
-        <f>1/('[1]water gas'!C37*1000)</f>
-        <v>7.3529411764705881E-3</v>
+        <v>7.3529411764705879</v>
       </c>
       <c r="C37" s="12">
         <v>2.79</v>
@@ -2095,8 +1728,7 @@
         <v>15.54</v>
       </c>
       <c r="E37" s="8">
-        <f>(('Saturated Water(gas)'!D37*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B37)/$E$3</f>
-        <v>2113.44</v>
+        <v>2.1134400000000002</v>
       </c>
       <c r="F37" s="9">
         <v>36.299999999999997</v>
@@ -2113,8 +1745,7 @@
         <v>480</v>
       </c>
       <c r="B38" s="10">
-        <f>1/('[1]water gas'!C38*1000)</f>
-        <v>9.0090090090090089E-3</v>
+        <v>9.0090090090090094</v>
       </c>
       <c r="C38" s="12">
         <v>2.94</v>
@@ -2123,8 +1754,7 @@
         <v>15.88</v>
       </c>
       <c r="E38" s="8">
-        <f>(('Saturated Water(gas)'!D38*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B38)/$E$3</f>
-        <v>1762.68</v>
+        <v>1.76268</v>
       </c>
       <c r="F38" s="9">
         <v>38.1</v>
@@ -2141,8 +1771,7 @@
         <v>490</v>
       </c>
       <c r="B39" s="10">
-        <f>1/('[1]water gas'!C39*1000)</f>
-        <v>1.0845986984815618E-2</v>
+        <v>10.845986984815617</v>
       </c>
       <c r="C39" s="12">
         <v>3.1</v>
@@ -2151,8 +1780,7 @@
         <v>16.23</v>
       </c>
       <c r="E39" s="8">
-        <f>(('Saturated Water(gas)'!D39*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B39)/$E$3</f>
-        <v>1496.4059999999999</v>
+        <v>1.4964060000000001</v>
       </c>
       <c r="F39" s="9">
         <v>40.1</v>
@@ -2169,8 +1797,7 @@
         <v>500</v>
       </c>
       <c r="B40" s="10">
-        <f>1/('[1]water gas'!C40*1000)</f>
-        <v>1.3054830287206267E-2</v>
+        <v>13.054830287206267</v>
       </c>
       <c r="C40" s="12">
         <v>3.27</v>
@@ -2179,8 +1806,7 @@
         <v>16.59</v>
       </c>
       <c r="E40" s="8">
-        <f>(('Saturated Water(gas)'!D40*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B40)/$E$3</f>
-        <v>1270.7940000000001</v>
+        <v>1.270794</v>
       </c>
       <c r="F40" s="9">
         <v>42.3</v>
@@ -2197,8 +1823,7 @@
         <v>510</v>
       </c>
       <c r="B41" s="10">
-        <f>1/('[1]water gas'!C41*1000)</f>
-        <v>1.5847860538827259E-2</v>
+        <v>15.847860538827257</v>
       </c>
       <c r="C41" s="12">
         <v>3.47</v>
@@ -2207,8 +1832,7 @@
         <v>16.95</v>
       </c>
       <c r="E41" s="8">
-        <f>(('Saturated Water(gas)'!D41*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B41)/$E$3</f>
-        <v>1069.5450000000001</v>
+        <v>1.069545</v>
       </c>
       <c r="F41" s="9">
         <v>44.7</v>
@@ -2225,8 +1849,7 @@
         <v>520</v>
       </c>
       <c r="B42" s="10">
-        <f>1/('[1]water gas'!C42*1000)</f>
-        <v>1.9047619047619049E-2</v>
+        <v>19.047619047619047</v>
       </c>
       <c r="C42" s="12">
         <v>3.7</v>
@@ -2235,8 +1858,7 @@
         <v>17.329999999999998</v>
       </c>
       <c r="E42" s="8">
-        <f>(('Saturated Water(gas)'!D42*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B42)/$E$3</f>
-        <v>909.82499999999993</v>
+        <v>0.90982499999999988</v>
       </c>
       <c r="F42" s="9">
         <v>47.5</v>
@@ -2253,8 +1875,7 @@
         <v>530</v>
       </c>
       <c r="B43" s="10">
-        <f>1/('[1]water gas'!C43*1000)</f>
-        <v>2.247191011235955E-2</v>
+        <v>22.471910112359552</v>
       </c>
       <c r="C43" s="12">
         <v>3.96</v>
@@ -2263,8 +1884,7 @@
         <v>17.72</v>
       </c>
       <c r="E43" s="8">
-        <f>(('Saturated Water(gas)'!D43*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B43)/$E$3</f>
-        <v>788.54</v>
+        <v>0.78853999999999991</v>
       </c>
       <c r="F43" s="9">
         <v>50.6</v>
@@ -2281,8 +1901,7 @@
         <v>540</v>
       </c>
       <c r="B44" s="10">
-        <f>1/('[1]water gas'!C44*1000)</f>
-        <v>2.6666666666666668E-2</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="C44" s="12">
         <v>4.2699999999999996</v>
@@ -2291,8 +1910,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="E44" s="8">
-        <f>(('Saturated Water(gas)'!D44*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B44)/$E$3</f>
-        <v>678.75</v>
+        <v>0.67875000000000008</v>
       </c>
       <c r="F44" s="9">
         <v>54</v>
@@ -2309,8 +1927,7 @@
         <v>550</v>
       </c>
       <c r="B45" s="10">
-        <f>1/('[1]water gas'!C45*1000)</f>
-        <v>3.1545741324921134E-2</v>
+        <v>31.545741324921135</v>
       </c>
       <c r="C45" s="12">
         <v>4.6399999999999997</v>
@@ -2319,8 +1936,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E45" s="8">
-        <f>(('Saturated Water(gas)'!D45*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B45)/$E$3</f>
-        <v>589.62</v>
+        <v>0.58962000000000003</v>
       </c>
       <c r="F45" s="9">
         <v>58.3</v>
@@ -2337,8 +1953,7 @@
         <v>560</v>
       </c>
       <c r="B46" s="10">
-        <f>1/('[1]water gas'!C46*1000)</f>
-        <v>3.717472118959108E-2</v>
+        <v>37.174721189591075</v>
       </c>
       <c r="C46" s="12">
         <v>5.09</v>
@@ -2347,8 +1962,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="E46" s="8">
-        <f>(('Saturated Water(gas)'!D46*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B46)/$E$3</f>
-        <v>513.79</v>
+        <v>0.51379000000000008</v>
       </c>
       <c r="F46" s="9">
         <v>63.7</v>
@@ -2365,8 +1979,7 @@
         <v>570</v>
       </c>
       <c r="B47" s="10">
-        <f>1/('[1]water gas'!C47*1000)</f>
-        <v>4.3859649122807015E-2</v>
+        <v>43.859649122807014</v>
       </c>
       <c r="C47" s="12">
         <v>5.67</v>
@@ -2375,8 +1988,7 @@
         <v>19.7</v>
       </c>
       <c r="E47" s="8">
-        <f>(('Saturated Water(gas)'!D47*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B47)/$E$3</f>
-        <v>449.16</v>
+        <v>0.44916</v>
       </c>
       <c r="F47" s="9">
         <v>76.7</v>
@@ -2393,8 +2005,7 @@
         <v>580</v>
       </c>
       <c r="B48" s="10">
-        <f>1/('[1]water gas'!C48*1000)</f>
-        <v>5.181347150259067E-2</v>
+        <v>51.813471502590673</v>
       </c>
       <c r="C48" s="12">
         <v>6.4</v>
@@ -2403,8 +2014,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="E48" s="8">
-        <f>(('Saturated Water(gas)'!D48*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B48)/$E$3</f>
-        <v>393.72</v>
+        <v>0.39371999999999996</v>
       </c>
       <c r="F48" s="9">
         <v>76.7</v>
@@ -2421,8 +2031,7 @@
         <v>590</v>
       </c>
       <c r="B49" s="10">
-        <f>1/('[1]water gas'!C49*1000)</f>
-        <v>6.1349693251533756E-2</v>
+        <v>61.349693251533751</v>
       </c>
       <c r="C49" s="12">
         <v>7.35</v>
@@ -2431,8 +2040,7 @@
         <v>21.5</v>
       </c>
       <c r="E49" s="8">
-        <f>(('Saturated Water(gas)'!D49*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B49)/$E$3</f>
-        <v>350.44999999999993</v>
+        <v>0.35044999999999993</v>
       </c>
       <c r="F49" s="9">
         <v>84.1</v>
@@ -2449,8 +2057,7 @@
         <v>600</v>
       </c>
       <c r="B50" s="10">
-        <f>1/('[1]water gas'!C50*1000)</f>
-        <v>7.2992700729927001E-2</v>
+        <v>72.992700729927009</v>
       </c>
       <c r="C50" s="12">
         <v>8.75</v>
@@ -2459,8 +2066,7 @@
         <v>22.7</v>
       </c>
       <c r="E50" s="8">
-        <f>(('Saturated Water(gas)'!D50*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B50)/$E$3</f>
-        <v>310.99</v>
+        <v>0.31098999999999999</v>
       </c>
       <c r="F50" s="9">
         <v>92.9</v>
@@ -2477,8 +2083,7 @@
         <v>610</v>
       </c>
       <c r="B51" s="10">
-        <f>1/('[1]water gas'!C51*1000)</f>
-        <v>8.6956521739130432E-2</v>
+        <v>86.956521739130437</v>
       </c>
       <c r="C51" s="9">
         <v>11.1</v>
@@ -2487,8 +2092,7 @@
         <v>24.1</v>
       </c>
       <c r="E51" s="8">
-        <f>(('Saturated Water(gas)'!D51*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B51)/$E$3</f>
-        <v>277.14999999999998</v>
+        <v>0.27715000000000001</v>
       </c>
       <c r="F51" s="7">
         <v>103</v>
@@ -2505,8 +2109,7 @@
         <v>620</v>
       </c>
       <c r="B52" s="10">
-        <f>1/('[1]water gas'!C52*1000)</f>
-        <v>0.10638297872340426</v>
+        <v>106.38297872340425</v>
       </c>
       <c r="C52" s="9">
         <v>15.4</v>
@@ -2515,8 +2118,7 @@
         <v>25.9</v>
       </c>
       <c r="E52" s="8">
-        <f>(('Saturated Water(gas)'!D52*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B52)/$E$3</f>
-        <v>243.46</v>
+        <v>0.24346000000000001</v>
       </c>
       <c r="F52" s="7">
         <v>114</v>
@@ -2533,8 +2135,7 @@
         <v>625</v>
       </c>
       <c r="B53" s="10">
-        <f>1/('[1]water gas'!C53*1000)</f>
-        <v>0.11764705882352941</v>
+        <v>117.64705882352941</v>
       </c>
       <c r="C53" s="9">
         <v>18.3</v>
@@ -2543,8 +2144,7 @@
         <v>27</v>
       </c>
       <c r="E53" s="8">
-        <f>(('Saturated Water(gas)'!D53*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B53)/$E$3</f>
-        <v>229.5</v>
+        <v>0.22950000000000001</v>
       </c>
       <c r="F53" s="7">
         <v>121</v>
@@ -2561,8 +2161,7 @@
         <v>630</v>
       </c>
       <c r="B54" s="10">
-        <f>1/('[1]water gas'!C54*1000)</f>
-        <v>0.13333333333333333</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="C54" s="9">
         <v>22.1</v>
@@ -2571,8 +2170,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="8">
-        <f>(('Saturated Water(gas)'!D54*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B54)/$E$3</f>
-        <v>210</v>
+        <v>0.21</v>
       </c>
       <c r="F54" s="7">
         <v>130</v>
@@ -2589,8 +2187,7 @@
         <v>635</v>
       </c>
       <c r="B55" s="10">
-        <f>1/('[1]water gas'!C55*1000)</f>
-        <v>0.15151515151515152</v>
+        <v>151.51515151515153</v>
       </c>
       <c r="C55" s="9">
         <v>27.6</v>
@@ -2599,8 +2196,7 @@
         <v>30</v>
       </c>
       <c r="E55" s="8">
-        <f>(('Saturated Water(gas)'!D55*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B55)/$E$3</f>
-        <v>198</v>
+        <v>0.19799999999999998</v>
       </c>
       <c r="F55" s="7">
         <v>141</v>
@@ -2617,8 +2213,7 @@
         <v>640</v>
       </c>
       <c r="B56" s="10">
-        <f>1/('[1]water gas'!C56*1000)</f>
-        <v>0.17543859649122806</v>
+        <v>175.43859649122805</v>
       </c>
       <c r="C56" s="7">
         <v>42</v>
@@ -2627,8 +2222,7 @@
         <v>32</v>
       </c>
       <c r="E56" s="8">
-        <f>(('Saturated Water(gas)'!D56*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B56)/$E$3</f>
-        <v>182.4</v>
+        <v>0.18240000000000001</v>
       </c>
       <c r="F56" s="7">
         <v>155</v>
@@ -2645,8 +2239,7 @@
         <v>645</v>
       </c>
       <c r="B57" s="10">
-        <f>1/('[1]water gas'!C57*1000)</f>
-        <v>0.22222222222222221</v>
+        <v>222.22222222222223</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>11</v>
@@ -2655,8 +2248,7 @@
         <v>37</v>
       </c>
       <c r="E57" s="8">
-        <f>(('Saturated Water(gas)'!D57*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B57)/$E$3</f>
-        <v>166.5</v>
+        <v>0.16650000000000001</v>
       </c>
       <c r="F57" s="7">
         <v>178</v>
@@ -2673,8 +2265,7 @@
         <v>647.29999999999995</v>
       </c>
       <c r="B58" s="10">
-        <f>1/('[1]water gas'!C58*1000)</f>
-        <v>0.3125</v>
+        <v>312.5</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>16</v>
@@ -2683,8 +2274,7 @@
         <v>45</v>
       </c>
       <c r="E58" s="8">
-        <f>(('Saturated Water(gas)'!D58*'Saturated Water(gas)'!$D$3)/'Saturated Water(gas)'!B58)/$E$3</f>
-        <v>144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F58" s="7">
         <v>238</v>
@@ -2706,7 +2296,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -3256,6 +2846,100 @@
       </c>
       <c r="H21" s="50">
         <v>0.72099999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85738D3C-508A-4369-B284-4D8F9CA70AB6}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="F3" s="3">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="G3" s="3">
+        <f>10^7</f>
+        <v>10000000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7646,8 +7330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF93E5D1-D75F-48A6-AC70-6DE19DC66C44}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
